--- a/sd-add-ms/ig/StructureDefinition-ror-contact-telecom-confidentiality-level.xlsx
+++ b/sd-add-ms/ig/StructureDefinition-ror-contact-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:56:40+00:00</t>
+    <t>2024-02-07T14:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
